--- a/Stefanini/Stefanini.Clientes/Stefanini.Cliente.Experian/Encuestas_2_radar.xlsx
+++ b/Stefanini/Stefanini.Clientes/Stefanini.Cliente.Experian/Encuestas_2_radar.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e10991a\Documents\Experian.Agile\Experian.Equipos\Experian.Nucleo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\omesan\Agile\Stefanini\Stefanini.Clientes\Stefanini.Cliente.Experian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDA5F4F-CBC2-4CE2-833E-AB83E342300A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{ADAEBBCD-56B0-4F7C-9350-13D8AACB7004}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="7320"/>
   </bookViews>
   <sheets>
     <sheet name="Satisfaccion Cliente" sheetId="1" r:id="rId1"/>
     <sheet name="Happines Team" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="57">
   <si>
     <t>Que tan satisfecho esta con el Equipo</t>
   </si>
@@ -131,12 +130,84 @@
   <si>
     <t>Seguridad (Oscar Baez)</t>
   </si>
+  <si>
+    <t>Operalización de procesos</t>
+  </si>
+  <si>
+    <t>CIAA</t>
+  </si>
+  <si>
+    <t>Reconocer</t>
+  </si>
+  <si>
+    <t>SME</t>
+  </si>
+  <si>
+    <t>ECS</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>Seguros</t>
+  </si>
+  <si>
+    <t>Anti-fraude</t>
+  </si>
+  <si>
+    <t>Célula Datos</t>
+  </si>
+  <si>
+    <t>Operaciones y servicios</t>
+  </si>
+  <si>
+    <t>Proyectos Especiales</t>
+  </si>
+  <si>
+    <t>Preguntas</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Seguridad</t>
+  </si>
+  <si>
+    <t>Antifraude</t>
+  </si>
+  <si>
+    <t>Datos</t>
+  </si>
+  <si>
+    <t>Decisor</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>Satisfaccion con el Equipo</t>
+  </si>
+  <si>
+    <t>Satisfaccion con el Entregable</t>
+  </si>
+  <si>
+    <t>Compromiso del Equipo</t>
+  </si>
+  <si>
+    <t>Encuesta 2</t>
+  </si>
+  <si>
+    <t>Encuenta 1</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,8 +227,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,8 +246,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -194,11 +282,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -208,6 +309,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -223,6 +331,2812 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Satisfaccion Cliente'!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Que tan satisfecho esta con el Equipo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Satisfaccion Cliente'!$J$3:$V$3</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Scores</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Seguridad </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SME</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Reconocer</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ECS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operalización de procesos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CIAA</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>BI</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Seguros</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Anti-fraude</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Célula Datos</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Operaciones y servicios</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Proyectos Especiales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Satisfaccion Cliente'!$J$4:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>8.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9857-429D-82D0-85E6B19BBD5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1372958959"/>
+        <c:axId val="1372954799"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1372958959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1372954799"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1372954799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1372958959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Resultado</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Encuesta Product Owner</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Satisfaccion Cliente'!$W$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Encuesta 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Satisfaccion Cliente'!$I$4:$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Que tan satisfecho esta con el Equipo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Que tan satisfecho esta con lo entregado</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Satisfaccion con la Forma de Trabajar del Equipo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>que tan satisfecho esta con el compromiso del Equipo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Satisfaccion Cliente'!$W$4:$W$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.1282051282051277</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5064102564102564</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9166666666666661</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4358974358974343</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-42B4-4AE7-9382-94258491226F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1253765247"/>
+        <c:axId val="1253768991"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1253765247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1253768991"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1253768991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1253765247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO" b="1"/>
+              <a:t>Satisfaccion</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" b="1" baseline="0"/>
+              <a:t> del Area de Negocio</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Satisfaccion Cliente'!$W$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Encuesta 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Satisfaccion Cliente'!$I$4:$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Que tan satisfecho esta con el Equipo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Que tan satisfecho esta con lo entregado</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Satisfaccion con la Forma de Trabajar del Equipo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>que tan satisfecho esta con el compromiso del Equipo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Satisfaccion Cliente'!$W$4:$W$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.1282051282051277</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5064102564102564</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9166666666666661</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4358974358974343</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9EDB-431D-990B-6093F7B4A79F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Satisfaccion Cliente'!$X$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Encuenta 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Satisfaccion Cliente'!$I$4:$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Que tan satisfecho esta con el Equipo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Que tan satisfecho esta con lo entregado</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Satisfaccion con la Forma de Trabajar del Equipo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>que tan satisfecho esta con el compromiso del Equipo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Satisfaccion Cliente'!$X$4:$X$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.5454545454545459</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3636363636363633</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4545454545454541</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5454545454545459</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9EDB-431D-990B-6093F7B4A79F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1203450271"/>
+        <c:axId val="1203445695"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1203450271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1203445695"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1203445695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1203450271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>481012</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1455964</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>136070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -521,19 +3435,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522278DB-C6C5-45E0-B100-AFE1CEA2CE1D}">
-  <dimension ref="C2:G92"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:X92"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="C34" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection activeCell="C76" sqref="C76"/>
+      <selection pane="topRight" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -541,7 +3474,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,8 +3491,57 @@
         <f>AVERAGE(D3:F3)</f>
         <v>8.6666666666666661</v>
       </c>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="3"/>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -576,8 +3558,71 @@
         <f t="shared" ref="G4:G6" si="0">AVERAGE(D4:F4)</f>
         <v>7.333333333333333</v>
       </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="3"/>
+      <c r="I4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <f>G3</f>
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="K4">
+        <f>D11</f>
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <f>D18</f>
+        <v>10</v>
+      </c>
+      <c r="M4" s="3">
+        <f>F25</f>
+        <v>5.5</v>
+      </c>
+      <c r="N4">
+        <f>D32</f>
+        <v>8</v>
+      </c>
+      <c r="O4">
+        <f>D39</f>
+        <v>7</v>
+      </c>
+      <c r="P4">
+        <f>D46</f>
+        <v>8</v>
+      </c>
+      <c r="Q4">
+        <f>F53</f>
+        <v>6.5</v>
+      </c>
+      <c r="R4">
+        <f>F61</f>
+        <v>7.5</v>
+      </c>
+      <c r="S4">
+        <f>D68</f>
+        <v>9</v>
+      </c>
+      <c r="T4">
+        <f>D75</f>
+        <v>8</v>
+      </c>
+      <c r="U4">
+        <f>H82</f>
+        <v>9.5</v>
+      </c>
+      <c r="V4">
+        <f>F89</f>
+        <v>9</v>
+      </c>
+      <c r="W4" s="3">
+        <f>AVERAGE(J4:V4)</f>
+        <v>8.1282051282051277</v>
+      </c>
+      <c r="X4" s="3">
+        <v>6.5454545454545459</v>
+      </c>
+    </row>
+    <row r="5" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
@@ -594,8 +3639,71 @@
         <f t="shared" si="0"/>
         <v>8.6666666666666661</v>
       </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="3"/>
+      <c r="I5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <f>G4</f>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K7" si="1">D12</f>
+        <v>8</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L7" si="2">D19</f>
+        <v>8</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" ref="M5:M7" si="3">F26</f>
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N7" si="4">D33</f>
+        <v>8</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O7" si="5">D40</f>
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P7" si="6">D47</f>
+        <v>8</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" ref="Q5:Q7" si="7">F54</f>
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ref="R5:R7" si="8">F62</f>
+        <v>7.5</v>
+      </c>
+      <c r="S5">
+        <f t="shared" ref="S5:S7" si="9">D69</f>
+        <v>9</v>
+      </c>
+      <c r="T5">
+        <f t="shared" ref="T5:T7" si="10">D76</f>
+        <v>9</v>
+      </c>
+      <c r="U5">
+        <f t="shared" ref="U5:U7" si="11">H83</f>
+        <v>9.25</v>
+      </c>
+      <c r="V5">
+        <f t="shared" ref="V5:V7" si="12">F90</f>
+        <v>8.5</v>
+      </c>
+      <c r="W5" s="3">
+        <f t="shared" ref="W5:W7" si="13">AVERAGE(J5:V5)</f>
+        <v>7.5064102564102564</v>
+      </c>
+      <c r="X5" s="3">
+        <v>6.3636363636363633</v>
+      </c>
+    </row>
+    <row r="6" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
@@ -612,50 +3720,191 @@
         <f t="shared" si="0"/>
         <v>8.6666666666666661</v>
       </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="3"/>
+      <c r="I6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3">
+        <f>G5</f>
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="M6" s="3">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="7"/>
+        <v>5.5</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="8"/>
+        <v>7.5</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="11"/>
+        <v>9.75</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="W6" s="3">
+        <f t="shared" si="13"/>
+        <v>7.9166666666666661</v>
+      </c>
+      <c r="X6" s="3">
+        <v>6.4545454545454541</v>
+      </c>
+    </row>
+    <row r="7" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="I7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3">
+        <f>G6</f>
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="M7" s="3">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="12"/>
+        <v>9.5</v>
+      </c>
+      <c r="W7" s="3">
+        <f t="shared" si="13"/>
+        <v>8.4358974358974343</v>
+      </c>
+      <c r="X7" s="3">
+        <v>6.5454545454545459</v>
+      </c>
+    </row>
+    <row r="8" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D12">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D13">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D14">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="J15" s="2"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,7 +3912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>1</v>
       </c>
@@ -671,7 +3920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
@@ -679,7 +3928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>3</v>
       </c>
@@ -687,7 +3936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C24" s="4" t="s">
         <v>7</v>
       </c>
@@ -697,7 +3946,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C25" s="6" t="s">
         <v>0</v>
       </c>
@@ -712,7 +3961,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C26" s="6" t="s">
         <v>1</v>
       </c>
@@ -723,11 +3972,11 @@
         <v>7</v>
       </c>
       <c r="F26" s="7">
-        <f t="shared" ref="F26:F28" si="1">AVERAGE(D26:E26)</f>
+        <f t="shared" ref="F26:F28" si="14">AVERAGE(D26:E26)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C27" s="6" t="s">
         <v>2</v>
       </c>
@@ -738,11 +3987,11 @@
         <v>10</v>
       </c>
       <c r="F27" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>5.5</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C28" s="6" t="s">
         <v>3</v>
       </c>
@@ -753,53 +4002,248 @@
         <v>9</v>
       </c>
       <c r="F28" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>5.5</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C31" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D32">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" t="s">
+        <v>36</v>
+      </c>
+      <c r="M32" t="s">
+        <v>37</v>
+      </c>
+      <c r="N32" t="s">
+        <v>34</v>
+      </c>
+      <c r="O32" t="s">
+        <v>38</v>
+      </c>
+      <c r="P32" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>47</v>
+      </c>
+      <c r="R32" t="s">
+        <v>48</v>
+      </c>
+      <c r="S32" t="s">
+        <v>49</v>
+      </c>
+      <c r="T32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D33">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I33" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J33" s="10">
+        <v>6</v>
+      </c>
+      <c r="K33" s="10">
+        <v>6</v>
+      </c>
+      <c r="L33" s="10">
+        <v>6</v>
+      </c>
+      <c r="M33" s="10">
+        <v>8</v>
+      </c>
+      <c r="N33" s="10">
+        <v>6</v>
+      </c>
+      <c r="O33" s="10">
+        <v>5</v>
+      </c>
+      <c r="P33" s="10">
+        <v>9</v>
+      </c>
+      <c r="Q33" s="10">
+        <v>6</v>
+      </c>
+      <c r="R33" s="10">
+        <v>8</v>
+      </c>
+      <c r="S33" s="10">
+        <v>6</v>
+      </c>
+      <c r="T33" s="10">
+        <v>6</v>
+      </c>
+      <c r="U33">
+        <f>AVERAGE(J33:T33)</f>
+        <v>6.5454545454545459</v>
+      </c>
+    </row>
+    <row r="34" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D34">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I34" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J34" s="11">
+        <v>6</v>
+      </c>
+      <c r="K34" s="11">
+        <v>6</v>
+      </c>
+      <c r="L34" s="11">
+        <v>6</v>
+      </c>
+      <c r="M34" s="11">
+        <v>8</v>
+      </c>
+      <c r="N34" s="11">
+        <v>6</v>
+      </c>
+      <c r="O34" s="11">
+        <v>5</v>
+      </c>
+      <c r="P34" s="11">
+        <v>8</v>
+      </c>
+      <c r="Q34" s="11">
+        <v>6</v>
+      </c>
+      <c r="R34" s="11">
+        <v>7</v>
+      </c>
+      <c r="S34" s="11">
+        <v>6</v>
+      </c>
+      <c r="T34" s="11">
+        <v>6</v>
+      </c>
+      <c r="U34">
+        <f t="shared" ref="U34:U36" si="15">AVERAGE(J34:T34)</f>
+        <v>6.3636363636363633</v>
+      </c>
+    </row>
+    <row r="35" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D35">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I35" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35" s="11">
+        <v>6</v>
+      </c>
+      <c r="K35" s="11">
+        <v>6</v>
+      </c>
+      <c r="L35" s="11">
+        <v>6</v>
+      </c>
+      <c r="M35" s="11">
+        <v>5</v>
+      </c>
+      <c r="N35" s="11">
+        <v>6</v>
+      </c>
+      <c r="O35" s="11">
+        <v>7</v>
+      </c>
+      <c r="P35" s="11">
+        <v>9</v>
+      </c>
+      <c r="Q35" s="11">
+        <v>6</v>
+      </c>
+      <c r="R35" s="11">
+        <v>8</v>
+      </c>
+      <c r="S35" s="11">
+        <v>6</v>
+      </c>
+      <c r="T35" s="11">
+        <v>6</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="15"/>
+        <v>6.4545454545454541</v>
+      </c>
+    </row>
+    <row r="36" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="I36" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J36" s="11">
+        <v>6</v>
+      </c>
+      <c r="K36" s="11">
+        <v>6</v>
+      </c>
+      <c r="L36" s="11">
+        <v>6</v>
+      </c>
+      <c r="M36" s="11">
+        <v>7</v>
+      </c>
+      <c r="N36" s="11">
+        <v>6</v>
+      </c>
+      <c r="O36" s="11">
+        <v>7</v>
+      </c>
+      <c r="P36" s="11">
+        <v>8</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>6</v>
+      </c>
+      <c r="R36" s="11">
+        <v>8</v>
+      </c>
+      <c r="S36" s="11">
+        <v>6</v>
+      </c>
+      <c r="T36" s="11">
+        <v>6</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="15"/>
+        <v>6.5454545454545459</v>
+      </c>
+    </row>
+    <row r="38" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
         <v>0</v>
       </c>
@@ -807,7 +4251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
         <v>1</v>
       </c>
@@ -815,7 +4259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
         <v>2</v>
       </c>
@@ -823,7 +4267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
         <v>3</v>
       </c>
@@ -831,28 +4275,31 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C45" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D46">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C47" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D47">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="J47" s="8"/>
+    </row>
+    <row r="48" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C48" s="1" t="s">
         <v>2</v>
       </c>
@@ -902,7 +4349,7 @@
         <v>4</v>
       </c>
       <c r="F54">
-        <f t="shared" ref="F54:F56" si="2">AVERAGE(D54:E54)</f>
+        <f t="shared" ref="F54:F56" si="16">AVERAGE(D54:E54)</f>
         <v>5</v>
       </c>
     </row>
@@ -917,7 +4364,7 @@
         <v>5</v>
       </c>
       <c r="F55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>5.5</v>
       </c>
     </row>
@@ -932,7 +4379,7 @@
         <v>7</v>
       </c>
       <c r="F56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
     </row>
@@ -940,6 +4387,9 @@
       <c r="C60" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="F60" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C61" s="1" t="s">
@@ -951,6 +4401,10 @@
       <c r="E61">
         <v>9</v>
       </c>
+      <c r="F61">
+        <f>AVERAGE(D61:E61)</f>
+        <v>7.5</v>
+      </c>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C62" s="1" t="s">
@@ -962,6 +4416,10 @@
       <c r="E62">
         <v>8</v>
       </c>
+      <c r="F62">
+        <f t="shared" ref="F62:F64" si="17">AVERAGE(D62:E62)</f>
+        <v>7.5</v>
+      </c>
     </row>
     <row r="63" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C63" s="1" t="s">
@@ -973,6 +4431,10 @@
       <c r="E63">
         <v>8</v>
       </c>
+      <c r="F63">
+        <f t="shared" si="17"/>
+        <v>7.5</v>
+      </c>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C64" s="1" t="s">
@@ -984,6 +4446,10 @@
       <c r="E64">
         <v>10</v>
       </c>
+      <c r="F64">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67" s="2" t="s">
@@ -1059,12 +4525,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C81" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C82" s="1" t="s">
         <v>0</v>
       </c>
@@ -1080,8 +4549,12 @@
       <c r="G82">
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H82">
+        <f>AVERAGE(D82:G82)</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C83" s="1" t="s">
         <v>1</v>
       </c>
@@ -1097,8 +4570,12 @@
       <c r="G83">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H83">
+        <f>AVERAGE(D83:G83)</f>
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C84" s="1" t="s">
         <v>2</v>
       </c>
@@ -1114,8 +4591,12 @@
       <c r="G84">
         <v>10</v>
       </c>
-    </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H84">
+        <f>AVERAGE(D84:G84)</f>
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C85" s="1" t="s">
         <v>3</v>
       </c>
@@ -1131,13 +4612,20 @@
       <c r="G85">
         <v>10</v>
       </c>
-    </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H85">
+        <f>AVERAGE(D85:G85)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C88" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C89" s="1" t="s">
         <v>0</v>
       </c>
@@ -1147,8 +4635,12 @@
       <c r="E89">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <f>AVERAGE(D89:E89)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C90" s="1" t="s">
         <v>1</v>
       </c>
@@ -1158,8 +4650,12 @@
       <c r="E90">
         <v>8</v>
       </c>
-    </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <f t="shared" ref="F90:F92" si="18">AVERAGE(D90:E90)</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C91" s="1" t="s">
         <v>2</v>
       </c>
@@ -1169,8 +4665,12 @@
       <c r="E91">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C92" s="1" t="s">
         <v>3</v>
       </c>
@@ -1179,20 +4679,25 @@
       </c>
       <c r="E92">
         <v>10</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="18"/>
+        <v>9.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8FC1C5-5DD2-416B-9F3F-557189073938}">
-  <dimension ref="C2:F121"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50:E55"/>
+    <sheetView topLeftCell="D43" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,12 +4705,12 @@
     <col min="3" max="3" width="84.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1216,7 +4721,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
@@ -1227,7 +4732,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
@@ -1238,7 +4743,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1249,7 +4754,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
@@ -1260,49 +4765,83 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D15">
         <v>10</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <f>AVERAGE(D15:E15)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
@@ -1410,14 +4949,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C34" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C35" s="6" t="s">
         <v>20</v>
       </c>
@@ -1427,8 +4969,11 @@
       <c r="E35" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C36" s="6" t="s">
         <v>21</v>
       </c>
@@ -1438,8 +4983,11 @@
       <c r="E36" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C37" s="6" t="s">
         <v>22</v>
       </c>
@@ -1449,8 +4997,11 @@
       <c r="E37" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C38" s="6" t="s">
         <v>23</v>
       </c>
@@ -1460,8 +5011,11 @@
       <c r="E38" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C39" s="6" t="s">
         <v>24</v>
       </c>
@@ -1471,13 +5025,17 @@
       <c r="E39" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <f>AVERAGE(D39:E39)</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
         <v>20</v>
       </c>
@@ -1485,7 +5043,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
         <v>21</v>
       </c>
@@ -1493,7 +5051,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
         <v>22</v>
       </c>
@@ -1501,7 +5059,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
         <v>23</v>
       </c>
@@ -1509,7 +5067,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C47" s="1" t="s">
         <v>24</v>
       </c>
@@ -1517,12 +5075,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C50" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="s">
         <v>20</v>
       </c>
@@ -1533,7 +5091,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C52" s="1" t="s">
         <v>21</v>
       </c>
@@ -1544,7 +5102,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C53" s="1" t="s">
         <v>22</v>
       </c>
@@ -1555,7 +5113,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C54" s="1" t="s">
         <v>23</v>
       </c>
@@ -1566,7 +5124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C55" s="1" t="s">
         <v>24</v>
       </c>
@@ -1577,57 +5135,88 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C58" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C59" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D59" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>25</v>
+      </c>
+      <c r="G59" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C60" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D60" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C61" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D61" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>25</v>
+      </c>
+      <c r="G61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C62" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D62" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>25</v>
+      </c>
+      <c r="G62" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C63" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D63">
         <v>7</v>
       </c>
-    </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <v>8</v>
+      </c>
+      <c r="G63">
+        <f>AVERAGE(D63:F63)</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C67" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C68" s="1" t="s">
         <v>20</v>
       </c>
@@ -1641,7 +5230,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C69" s="1" t="s">
         <v>21</v>
       </c>
@@ -1655,7 +5244,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C70" s="1" t="s">
         <v>22</v>
       </c>
@@ -1669,7 +5258,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C71" s="1" t="s">
         <v>23</v>
       </c>
@@ -1683,7 +5272,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C72" s="1" t="s">
         <v>24</v>
       </c>
@@ -1697,12 +5286,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C75" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C76" s="1" t="s">
         <v>20</v>
       </c>
@@ -1715,8 +5307,11 @@
       <c r="F76" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G76" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C77" s="1" t="s">
         <v>21</v>
       </c>
@@ -1729,8 +5324,11 @@
       <c r="F77" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C78" s="1" t="s">
         <v>22</v>
       </c>
@@ -1743,8 +5341,11 @@
       <c r="F78" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G78" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C79" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +5358,11 @@
       <c r="F79" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G79" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C80" s="1" t="s">
         <v>24</v>
       </c>
@@ -1770,6 +5374,10 @@
       </c>
       <c r="F80">
         <v>9</v>
+      </c>
+      <c r="G80">
+        <f>AVERAGE(D80:F80)</f>
+        <v>8.6666666666666661</v>
       </c>
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.25">
